--- a/notebooks/stats_selected_features.xlsx
+++ b/notebooks/stats_selected_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,185 +723,185 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lab_Alanine Aminotransferase (ALT)_max</t>
+          <t>mechanical_ventilation</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.7855598789451</v>
+        <v>0.5606295149638802</v>
       </c>
       <c r="C5" t="n">
-        <v>643.9555925734459</v>
+        <v>0.4963744850564891</v>
       </c>
       <c r="D5" t="n">
-        <v>40.3250773993808</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>134.2268392370572</v>
+        <v>0.4742632612966601</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16270</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>234.298224852071</v>
+        <v>0.7257700976709242</v>
       </c>
       <c r="J5" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>11732</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007899813182817784</v>
+        <v>3.18858659766173e-55</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7.90e-04</t>
+          <t>3.19e-55</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0672648115738272</v>
+        <v>0.2395731329508655</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Categorical</t>
+          <t>Numerical</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.96284829721362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lab_INR(PT)_max</t>
+          <t>rrt_dialysis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.040519974635384</v>
+        <v>0.1547987616099071</v>
       </c>
       <c r="C6" t="n">
-        <v>1.805374991664333</v>
+        <v>0.3617594078529096</v>
       </c>
       <c r="D6" t="n">
-        <v>18.62745098039216</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.888364167478092</v>
+        <v>0.1218074656188605</v>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>36.3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.324636363636364</v>
+        <v>0.2178812922614576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>21.5</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2.225873559501322e-09</v>
+        <v>2.488343036021692e-13</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.23e-09</t>
+          <t>2.49e-13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.1219735895260443</v>
+        <v>0.1243534053377654</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Categorical</t>
+          <t>Numerical</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>436</v>
+        <v>600</v>
       </c>
       <c r="S6" t="n">
-        <v>11.24871001031992</v>
+        <v>15.47987616099071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lab_RDW_max</t>
+          <t>Lab_Alanine Aminotransferase (ALT)_max</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.16795727636849</v>
+        <v>170.7855598789451</v>
       </c>
       <c r="C7" t="n">
-        <v>2.425569084316023</v>
+        <v>643.9555925734459</v>
       </c>
       <c r="D7" t="n">
-        <v>3.379772961816305</v>
+        <v>40.3250773993808</v>
       </c>
       <c r="E7" t="n">
-        <v>15.80697299476018</v>
+        <v>134.2268392370572</v>
       </c>
       <c r="F7" t="n">
-        <v>15.3</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>29.7</v>
+        <v>16270</v>
       </c>
       <c r="I7" t="n">
-        <v>16.87650316455696</v>
+        <v>234.298224852071</v>
       </c>
       <c r="J7" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="K7" t="n">
-        <v>11.8</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>30.9</v>
+        <v>11732</v>
       </c>
       <c r="M7" t="n">
-        <v>3.600349967023083e-34</v>
+        <v>0.0007899813182817784</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.60e-34</t>
+          <t>7.90e-04</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.2115346856666634</v>
+        <v>0.07484514686381077</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -909,64 +909,64 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="S7" t="n">
-        <v>2.915376676986584</v>
+        <v>7.585139318885449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Lab_pCO2_max</t>
+          <t>Lab_Calcium, Total_max</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.34125</v>
+        <v>8.133542063708141</v>
       </c>
       <c r="C8" t="n">
-        <v>15.5682353715638</v>
+        <v>0.9295657526470771</v>
       </c>
       <c r="D8" t="n">
-        <v>38.08049535603715</v>
+        <v>5.23735810113519</v>
       </c>
       <c r="E8" t="n">
-        <v>45.14732142857143</v>
+        <v>8.074887156339763</v>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>159</v>
+        <v>13.7</v>
       </c>
       <c r="I8" t="n">
-        <v>48.59134615384615</v>
+        <v>8.249190938511326</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>231</v>
+        <v>27.4</v>
       </c>
       <c r="M8" t="n">
-        <v>3.352681194793339e-06</v>
+        <v>2.329730121089563e-06</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.35e-06</t>
+          <t>2.33e-06</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.1125278151877986</v>
+        <v>0.08861390911618705</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -974,64 +974,64 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>878</v>
+        <v>98</v>
       </c>
       <c r="S8" t="n">
-        <v>22.65221878224974</v>
+        <v>2.528379772961816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Lab_Anion Gap_mean</t>
+          <t>Lab_Hematocrit_max</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.27229790617546</v>
+        <v>32.51766419491526</v>
       </c>
       <c r="C9" t="n">
-        <v>4.247680584023516</v>
+        <v>5.351641495981379</v>
       </c>
       <c r="D9" t="n">
-        <v>2.657378740970072</v>
+        <v>2.579979360165118</v>
       </c>
       <c r="E9" t="n">
-        <v>14.55412235105958</v>
+        <v>32.36533386645342</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>31.9</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>19.7</v>
       </c>
       <c r="H9" t="n">
-        <v>31.75</v>
+        <v>58.2</v>
       </c>
       <c r="I9" t="n">
-        <v>16.68437106918239</v>
+        <v>32.8164705882353</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>32.3</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>19.1</v>
       </c>
       <c r="L9" t="n">
-        <v>50.6</v>
+        <v>60.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.927267989419541e-37</v>
+        <v>0.01765815289348844</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.93e-37</t>
+          <t>1.77e-02</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.238866220732092</v>
+        <v>0.03987113826136795</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1039,64 +1039,64 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="S9" t="n">
-        <v>4.282765737874096</v>
+        <v>1.470588235294118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Lab_Lactate_mean</t>
+          <t>Lab_Neutrophils_max</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.66530062707488</v>
+        <v>78.25974472263131</v>
       </c>
       <c r="C10" t="n">
-        <v>2.35209870406177</v>
+        <v>18.36321998628947</v>
       </c>
       <c r="D10" t="n">
-        <v>30.05675954592363</v>
+        <v>47.44582043343653</v>
       </c>
       <c r="E10" t="n">
-        <v>2.075992469069392</v>
+        <v>80.04777298850574</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>84.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.3</v>
+        <v>99</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95112676056338</v>
+        <v>74.40093023255814</v>
       </c>
       <c r="J10" t="n">
-        <v>2.615</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>26.27</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>8.805474796353217e-49</v>
+        <v>8.38447517808691e-09</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>8.81e-49</t>
+          <t>8.38e-09</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.3550083572206928</v>
+        <v>-0.1430776936931736</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1104,64 +1104,64 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="S10" t="n">
-        <v>10.01031991744066</v>
+        <v>3.740970072239422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lab_Temperature_mean</t>
+          <t>Lab_RDW_max</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.01702702702703</v>
+        <v>16.16795727636849</v>
       </c>
       <c r="C11" t="n">
-        <v>1.07010743298946</v>
+        <v>2.425569084316023</v>
       </c>
       <c r="D11" t="n">
-        <v>57.04334365325078</v>
+        <v>3.379772961816305</v>
       </c>
       <c r="E11" t="n">
-        <v>37.12096685082872</v>
+        <v>15.80697299476018</v>
       </c>
       <c r="F11" t="n">
-        <v>37.1</v>
+        <v>15.3</v>
       </c>
       <c r="G11" t="n">
-        <v>26.7</v>
+        <v>11.7</v>
       </c>
       <c r="H11" t="n">
-        <v>41.1</v>
+        <v>29.7</v>
       </c>
       <c r="I11" t="n">
-        <v>36.82207253886011</v>
+        <v>16.87650316455696</v>
       </c>
       <c r="J11" t="n">
-        <v>36.8</v>
+        <v>16.5</v>
       </c>
       <c r="K11" t="n">
-        <v>32.8</v>
+        <v>11.8</v>
       </c>
       <c r="L11" t="n">
-        <v>40.1</v>
+        <v>30.9</v>
       </c>
       <c r="M11" t="n">
-        <v>1.456341891391937e-07</v>
+        <v>3.600349967023083e-34</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.46e-07</t>
+          <t>3.60e-34</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0.200105920592221</v>
+        <v>0.2085318899618461</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1169,64 +1169,64 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>872</v>
+        <v>105</v>
       </c>
       <c r="S11" t="n">
-        <v>22.49742002063984</v>
+        <v>2.708978328173375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lab_Albumin_min</t>
+          <t>Lab_Anion Gap_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.681583287520616</v>
+        <v>15.27229790617546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6061533751980571</v>
+        <v>4.247680584023516</v>
       </c>
       <c r="D12" t="n">
-        <v>53.07017543859649</v>
+        <v>2.657378740970072</v>
       </c>
       <c r="E12" t="n">
-        <v>2.729671280276817</v>
+        <v>14.55412235105958</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>31.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.597737556561086</v>
+        <v>16.68437106918239</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>50.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.3909398977991e-05</v>
+        <v>1.927267989419541e-37</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.39e-05</t>
+          <t>1.93e-37</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-0.150027658616743</v>
+        <v>0.2371098622347815</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1234,64 +1234,64 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1105</v>
+        <v>166</v>
       </c>
       <c r="S12" t="n">
-        <v>28.50877192982456</v>
+        <v>4.282765737874096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Lab_Base Excess_min</t>
+          <t>Lab_Lactate_mean</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.08375</v>
+        <v>2.66530062707488</v>
       </c>
       <c r="C13" t="n">
-        <v>6.682091008504424</v>
+        <v>2.35209870406177</v>
       </c>
       <c r="D13" t="n">
-        <v>38.08049535603715</v>
+        <v>30.05675954592363</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.014030612244898</v>
+        <v>2.075992469069392</v>
       </c>
       <c r="F13" t="n">
-        <v>-5</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>-30</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>10.3</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.099759615384615</v>
+        <v>3.95112676056338</v>
       </c>
       <c r="J13" t="n">
-        <v>-8</v>
+        <v>2.615</v>
       </c>
       <c r="K13" t="n">
-        <v>-33</v>
+        <v>0.6</v>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>26.27</v>
       </c>
       <c r="M13" t="n">
-        <v>5.083508786235464e-23</v>
+        <v>8.805474796353217e-49</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5.08e-23</t>
+          <t>8.81e-49</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.2747174277372365</v>
+        <v>0.3701578137644423</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1299,64 +1299,64 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="S13" t="n">
-        <v>10.99071207430341</v>
+        <v>6.166150670794634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Lab_Bicarbonate_min</t>
+          <t>Lab_Albumin_min</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.42282838983051</v>
+        <v>2.681583287520616</v>
       </c>
       <c r="C14" t="n">
-        <v>5.489237445510207</v>
+        <v>0.6061533751980571</v>
       </c>
       <c r="D14" t="n">
-        <v>2.579979360165118</v>
+        <v>53.07017543859649</v>
       </c>
       <c r="E14" t="n">
-        <v>20.68092762894842</v>
+        <v>2.729671280276817</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>42</v>
+        <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>19.91654901960784</v>
+        <v>2.597737556561086</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001707379336191471</v>
+        <v>1.3909398977991e-05</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.71e-04</t>
+          <t>1.39e-05</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0.06699558967320998</v>
+        <v>-0.1047841716979448</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1364,64 +1364,64 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>1.186790505675955</v>
+        <v>0.2579979360165119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lab_Lactate Dehydrogenase (LD)_min</t>
+          <t>Lab_Base Excess_min</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>499.4593852908891</v>
+        <v>-6.08375</v>
       </c>
       <c r="C15" t="n">
-        <v>1311.667118439777</v>
+        <v>6.682091008504424</v>
       </c>
       <c r="D15" t="n">
-        <v>52.99277605779154</v>
+        <v>38.08049535603715</v>
       </c>
       <c r="E15" t="n">
-        <v>348.90681622088</v>
+        <v>-5.014030612244898</v>
       </c>
       <c r="F15" t="n">
-        <v>242</v>
+        <v>-5</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>-30</v>
       </c>
       <c r="H15" t="n">
-        <v>8690</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>762.6425339366516</v>
+        <v>-8.099759615384615</v>
       </c>
       <c r="J15" t="n">
-        <v>309</v>
+        <v>-8</v>
       </c>
       <c r="K15" t="n">
-        <v>48</v>
+        <v>-33</v>
       </c>
       <c r="L15" t="n">
-        <v>40050</v>
+        <v>13</v>
       </c>
       <c r="M15" t="n">
-        <v>3.689392595303086e-07</v>
+        <v>5.083508786235464e-23</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3.69e-07</t>
+          <t>5.08e-23</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.1278890731298958</v>
+        <v>-0.219816021730816</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1429,64 +1429,64 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="S15" t="n">
-        <v>13.90608875128999</v>
+        <v>1.135190918472652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lab_Neutrophils_min</t>
+          <t>Lab_Bicarbonate_min</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.1074619538537</v>
+        <v>20.42282838983051</v>
       </c>
       <c r="C16" t="n">
-        <v>19.48315007452024</v>
+        <v>5.489237445510207</v>
       </c>
       <c r="D16" t="n">
-        <v>47.44582043343653</v>
+        <v>2.579979360165118</v>
       </c>
       <c r="E16" t="n">
-        <v>77.95186781609195</v>
+        <v>20.68092762894842</v>
       </c>
       <c r="F16" t="n">
-        <v>82.8</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I16" t="n">
-        <v>72.12697674418605</v>
+        <v>19.91654901960784</v>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>97.5</v>
+        <v>45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.648397079874779e-08</v>
+        <v>0.0001707379336191471</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.65e-08</t>
+          <t>1.71e-04</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0.1304286783327559</v>
+        <v>-0.06586185755039549</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1494,64 +1494,64 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1312</v>
+        <v>46</v>
       </c>
       <c r="S16" t="n">
-        <v>33.84932920536636</v>
+        <v>1.186790505675955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Vital_Mental status_max</t>
+          <t>Lab_Lactate Dehydrogenase (LD)_min</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.76254826254826</v>
+        <v>499.4593852908891</v>
       </c>
       <c r="C17" t="n">
-        <v>6.755378973808126</v>
+        <v>1311.667118439777</v>
       </c>
       <c r="D17" t="n">
-        <v>59.90712074303406</v>
+        <v>52.99277605779154</v>
       </c>
       <c r="E17" t="n">
-        <v>10.11042402826855</v>
+        <v>348.90681622088</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>8690</v>
       </c>
       <c r="I17" t="n">
-        <v>12.51184834123223</v>
+        <v>762.6425339366516</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>40050</v>
       </c>
       <c r="M17" t="n">
-        <v>4.822011182618742e-12</v>
+        <v>3.689392595303086e-07</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.82e-12</t>
+          <t>3.69e-07</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.2607281970105552</v>
+        <v>0.1517989286569236</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1559,64 +1559,64 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="S17" t="n">
-        <v>11.32610939112487</v>
+        <v>5.21155830753354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Vital_Heart Rate_mean</t>
+          <t>Lab_Temperature_min</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.71143714466204</v>
+        <v>36.62984984984985</v>
       </c>
       <c r="C18" t="n">
-        <v>17.68200134820825</v>
+        <v>1.226168610189668</v>
       </c>
       <c r="D18" t="n">
-        <v>18.31785345717234</v>
+        <v>57.04334365325078</v>
       </c>
       <c r="E18" t="n">
-        <v>90.54172224760165</v>
+        <v>36.76123388581952</v>
       </c>
       <c r="F18" t="n">
-        <v>89.52</v>
+        <v>36.7</v>
       </c>
       <c r="G18" t="n">
-        <v>48.33</v>
+        <v>18.9</v>
       </c>
       <c r="H18" t="n">
-        <v>154.97</v>
+        <v>41.1</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33222108495394</v>
+        <v>36.38341968911917</v>
       </c>
       <c r="J18" t="n">
-        <v>94.28</v>
+        <v>36.4</v>
       </c>
       <c r="K18" t="n">
-        <v>40.56</v>
+        <v>31.1</v>
       </c>
       <c r="L18" t="n">
-        <v>158.5</v>
+        <v>40.1</v>
       </c>
       <c r="M18" t="n">
-        <v>8.259177745175074e-08</v>
+        <v>3.314231070571717e-09</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>8.26e-08</t>
+          <t>3.31e-09</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.1124849404695397</v>
+        <v>-0.146790683757883</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1624,129 +1624,129 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72858617131063</v>
+        <v>2.089783281733746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Vital_O2 saturation pulseoxymetry_mean</t>
+          <t>Vital_GCS Total_max</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.45613991255465</v>
+        <v>12.13753213367609</v>
       </c>
       <c r="C19" t="n">
-        <v>3.601163244760261</v>
+        <v>3.493546473196228</v>
       </c>
       <c r="D19" t="n">
-        <v>58.69453044375646</v>
+        <v>59.85552115583075</v>
       </c>
       <c r="E19" t="n">
-        <v>96.98079447322971</v>
+        <v>12.69902912621359</v>
       </c>
       <c r="F19" t="n">
-        <v>97.16499999999999</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>77.2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I19" t="n">
-        <v>95.08469525959369</v>
+        <v>11.03802281368821</v>
       </c>
       <c r="J19" t="n">
-        <v>96.52</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>54.67</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
-        <v>4.877048248409008e-11</v>
+        <v>9.066994627369312e-16</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.88e-11</t>
+          <t>9.07e-16</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0.2110788231986406</v>
+        <v>0.2655308327007541</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Categorical</t>
+          <t>Numerical</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.95562435500516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Vital_Respiratory Rate_mean</t>
+          <t>Vital_Hematocrit_max</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.23242098609355</v>
+        <v>32.85076046836089</v>
       </c>
       <c r="C20" t="n">
-        <v>4.73674804022762</v>
+        <v>5.152362426077027</v>
       </c>
       <c r="D20" t="n">
-        <v>18.36945304437564</v>
+        <v>59.28792569659442</v>
       </c>
       <c r="E20" t="n">
-        <v>20.88135283363802</v>
+        <v>32.60599430712147</v>
       </c>
       <c r="F20" t="n">
-        <v>20.44</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>9.539999999999999</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="H20" t="n">
-        <v>40.87</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="I20" t="n">
-        <v>22.01944672131147</v>
+        <v>33.33889943508315</v>
       </c>
       <c r="J20" t="n">
-        <v>21.76</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="K20" t="n">
-        <v>8.59</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="L20" t="n">
-        <v>41.52</v>
+        <v>52.90000152587891</v>
       </c>
       <c r="M20" t="n">
-        <v>1.599589129204932e-09</v>
+        <v>0.0092006611024903</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.60e-09</t>
+          <t>9.20e-03</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.1260671572474422</v>
+        <v>0.0671086767425699</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1754,64 +1754,64 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="S20" t="n">
-        <v>4.179566563467492</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Vital_SpO2_mean</t>
+          <t>Vital_GCS - Eye Opening_mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.2966859344894</v>
+        <v>3.126320400500626</v>
       </c>
       <c r="C21" t="n">
-        <v>5.147910893532624</v>
+        <v>0.9959942198039541</v>
       </c>
       <c r="D21" t="n">
-        <v>59.82972136222911</v>
+        <v>58.77192982456141</v>
       </c>
       <c r="E21" t="n">
-        <v>97.04481122942886</v>
+        <v>3.278849480968858</v>
       </c>
       <c r="F21" t="n">
-        <v>97.53</v>
+        <v>3.67</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>94.82185114503815</v>
+        <v>2.727398190045249</v>
       </c>
       <c r="J21" t="n">
-        <v>96.58500000000001</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>47.71</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.91967455152444e-11</v>
+        <v>3.66689708858133e-19</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.92e-11</t>
+          <t>3.67e-19</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-0.2068890328150302</v>
+        <v>-0.2477419466975427</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1819,129 +1819,129 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>15.04127966976264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vital_GCS Total_min</t>
+          <t>Vital_GCS - Motor Response_mean</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.330976863753213</v>
+        <v>5.04080250783699</v>
       </c>
       <c r="C22" t="n">
-        <v>4.600611375222989</v>
+        <v>1.411016739407982</v>
       </c>
       <c r="D22" t="n">
-        <v>59.85552115583075</v>
+        <v>58.84932920536635</v>
       </c>
       <c r="E22" t="n">
-        <v>10.02038834951456</v>
+        <v>5.272952380952381</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>7.980988593155893</v>
+        <v>4.43140909090909</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>2.480151297345122e-16</v>
+        <v>6.641636855435176e-20</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2.48e-16</t>
+          <t>6.64e-20</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7397998842919329</v>
+        <v>-0.2666472589868211</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Numerical</t>
+          <t>Categorical</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.199174406604747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Vital_Respiratory Rate (Total) Unified_mean</t>
+          <t>Vital_Heart Rate_mean</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.84849079754601</v>
+        <v>91.71143714466204</v>
       </c>
       <c r="C23" t="n">
-        <v>5.50214595600256</v>
+        <v>17.68200134820825</v>
       </c>
       <c r="D23" t="n">
-        <v>57.94633642930857</v>
+        <v>18.31785345717234</v>
       </c>
       <c r="E23" t="n">
-        <v>21.01139742319128</v>
+        <v>90.54172224760165</v>
       </c>
       <c r="F23" t="n">
-        <v>20.38</v>
+        <v>89.52</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>48.33</v>
       </c>
       <c r="H23" t="n">
-        <v>50.17</v>
+        <v>154.97</v>
       </c>
       <c r="I23" t="n">
-        <v>23.20859903381643</v>
+        <v>94.33222108495394</v>
       </c>
       <c r="J23" t="n">
-        <v>22.8</v>
+        <v>94.28</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>40.56</v>
       </c>
       <c r="L23" t="n">
-        <v>53</v>
+        <v>158.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.74672792422978e-14</v>
+        <v>8.259177745175074e-08</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.75e-14</t>
+          <t>8.26e-08</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.2857286787526658</v>
+        <v>0.09903593329067265</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1949,129 +1949,129 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>724</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>18.67905056759546</v>
+        <v>0.2321981424148607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Vital_Mean Arterial Pressure Unified_min</t>
+          <t>Vital_Mental status_mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.35188582845176</v>
+        <v>9.358391248391248</v>
       </c>
       <c r="C24" t="n">
-        <v>26.37502435440931</v>
+        <v>6.575377893949709</v>
       </c>
       <c r="D24" t="n">
-        <v>57.81733746130031</v>
+        <v>59.90712074303406</v>
       </c>
       <c r="E24" t="n">
-        <v>53.59430031802384</v>
+        <v>8.664372791519435</v>
       </c>
       <c r="F24" t="n">
-        <v>58</v>
+        <v>11.25</v>
       </c>
       <c r="G24" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>47.42199780884817</v>
+        <v>11.22007109004739</v>
       </c>
       <c r="J24" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M24" t="n">
-        <v>1.930780105146811e-06</v>
+        <v>2.435891152837252e-13</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.93e-06</t>
+          <t>2.44e-13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-0.1250925626797442</v>
+        <v>0.1986942294794058</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Categorical</t>
+          <t>Numerical</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>23.19401444788442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lab_Sodium_Unified_mean</t>
+          <t>Vital_O2 saturation pulseoxymetry_mean</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.7793624338624</v>
+        <v>96.45613991255465</v>
       </c>
       <c r="C25" t="n">
-        <v>5.563001053925534</v>
+        <v>3.601163244760261</v>
       </c>
       <c r="D25" t="n">
-        <v>2.476780185758514</v>
+        <v>58.69453044375646</v>
       </c>
       <c r="E25" t="n">
-        <v>139.1836741214057</v>
+        <v>96.98079447322971</v>
       </c>
       <c r="F25" t="n">
-        <v>139</v>
+        <v>97.16499999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>115.25</v>
+        <v>77.2</v>
       </c>
       <c r="H25" t="n">
-        <v>171.6</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>137.9859482758621</v>
+        <v>95.08469525959369</v>
       </c>
       <c r="J25" t="n">
-        <v>138</v>
+        <v>96.52</v>
       </c>
       <c r="K25" t="n">
-        <v>116</v>
+        <v>54.67</v>
       </c>
       <c r="L25" t="n">
-        <v>162.67</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>1.406970327585329e-09</v>
+        <v>4.877048248409008e-11</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.41e-09</t>
+          <t>4.88e-11</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-0.1032167830886163</v>
+        <v>-0.2356235715923459</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2079,75 +2079,660 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="S25" t="n">
-        <v>4.876160990712075</v>
+        <v>1.470588235294118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lab_Bilirubin_Unified_mean</t>
+          <t>Vital_Respiratory Rate_mean</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.638391938250429</v>
+        <v>21.23242098609355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.044818336721605</v>
+        <v>4.73674804022762</v>
       </c>
       <c r="D26" t="n">
+        <v>18.36945304437564</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.88135283363802</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22.01944672131147</v>
+      </c>
+      <c r="J26" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="L26" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.599589129204932e-09</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.60e-09</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1109886428843892</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>40</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.031991744066048</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Carbon Dioxide_min</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19.58529784537389</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.45181108232578</v>
+      </c>
+      <c r="D27" t="n">
+        <v>59.28792569659442</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.05009451795841</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18.63961538461539</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7.564323775204842e-06</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>7.56e-06</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.1216468946749237</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>22</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5675954592363261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Vital_GCS - Verbal Response_min</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.739811912225705</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.861082297259571</v>
+      </c>
+      <c r="D28" t="n">
+        <v>58.84932920536635</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.948829141370338</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.194570135746607</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.552792715058169e-14</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5.55e-14</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.1754465289496548</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Numerical</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Vital_SpO2_min</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>87.56775850995504</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.79178672416908</v>
+      </c>
+      <c r="D29" t="n">
+        <v>59.82972136222911</v>
+      </c>
+      <c r="E29" t="n">
+        <v>89.99419167473378</v>
+      </c>
+      <c r="F29" t="n">
+        <v>93</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>82.78435114503817</v>
+      </c>
+      <c r="J29" t="n">
+        <v>91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.498904112301826e-13</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8.50e-13</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.2158047952196967</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>176</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.540763673890609</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Temp_Unified_min</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>36.01423303484832</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.283037305118066</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18.78224974200206</v>
+      </c>
+      <c r="E30" t="n">
+        <v>36.19296773608851</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36.16666581895616</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-17.77777777777778</v>
+      </c>
+      <c r="H30" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>35.61050723970745</v>
+      </c>
+      <c r="J30" t="n">
+        <v>35.88888888888889</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-17.77777777777778</v>
+      </c>
+      <c r="L30" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.1055333878669e-06</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>4.11e-06</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.08183533439807174</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>135</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.48297213622291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Respiratory Rate (Total) Unified_mean</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21.84849079754601</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.50214595600256</v>
+      </c>
+      <c r="D31" t="n">
+        <v>57.94633642930857</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.01139742319128</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23.20859903381643</v>
+      </c>
+      <c r="J31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>53</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.74672792422978e-14</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.75e-14</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1939879889439381</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>13</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.3353973168214654</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Sodium_Unified_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>138.7793624338624</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.563001053925534</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.476780185758514</v>
+      </c>
+      <c r="E32" t="n">
+        <v>139.1836741214057</v>
+      </c>
+      <c r="F32" t="n">
+        <v>139</v>
+      </c>
+      <c r="G32" t="n">
+        <v>115.25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>137.9859482758621</v>
+      </c>
+      <c r="J32" t="n">
+        <v>138</v>
+      </c>
+      <c r="K32" t="n">
+        <v>116</v>
+      </c>
+      <c r="L32" t="n">
+        <v>162.67</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.406970327585329e-09</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1.41e-09</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.1018254721671334</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>152</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.92156862745098</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Creatinine_Unified_min</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.79672131147541</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.620814700098569</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.425180598555212</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.682521947326416</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.021003134796238</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.90873966542184e-09</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2.91e-09</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.09875360047731567</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>318</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8.204334365325078</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Bilirubin_Unified_max</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.772512864493997</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.222790537782512</v>
+      </c>
+      <c r="D34" t="n">
         <v>39.83488132094944</v>
       </c>
-      <c r="E26" t="n">
-        <v>1.91974306964165</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>57.55</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.884443141852286</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="E34" t="n">
+        <v>2.02183908045977</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.074091441969519</v>
+      </c>
+      <c r="J34" t="n">
         <v>1.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K34" t="n">
         <v>0.1</v>
       </c>
-      <c r="L26" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>7.981373390760441e-16</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>7.98e-16</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0.1789373399780355</v>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="L34" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.328848700453934e-16</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4.33e-16</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1893003200530108</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Categorical</t>
         </is>
       </c>
-      <c r="R26" t="n">
-        <v>653</v>
-      </c>
-      <c r="S26" t="n">
-        <v>16.84726522187822</v>
+      <c r="R34" t="n">
+        <v>275</v>
+      </c>
+      <c r="S34" t="n">
+        <v>7.094943240454077</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Urea_Unified_min</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34.65600211528292</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.00049964458106</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.425180598555212</v>
+      </c>
+      <c r="E35" t="n">
+        <v>31.61437125748503</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>182</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40.62255285826155</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>170</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.845020650067307e-23</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>6.85e-23</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1704212150120015</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>159</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.102167182662539</v>
       </c>
     </row>
   </sheetData>
